--- a/BackTest/2020-01-20 BackTest AMO.xlsx
+++ b/BackTest/2020-01-20 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-36597665.5939</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-36597665.5939</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-37932414.2679</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-37233347.77290001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-37658456.47860001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-38982202.04040001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-40240668.85340001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-37343933.97030001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-37343933.97030001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-36017661.05830001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-37428691.59330001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-38246418.76230001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-39081097.45630001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-37881960.9803</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-38623406.28730001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-37551406.24730001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-36030190.8013</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-34644657.5333</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-35826842.4843</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-34983688.0283</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-33615106.2853</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-34373503.1173</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-35292939.43430001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-17542704.25171661</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-18962210.54971661</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-18852025.63871662</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-19335144.09371661</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-19741980.68871661</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-18678456.41071661</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-19572465.44071661</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-20508853.28271661</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-20508853.28271661</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-19771433.69141661</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-14703105.33451661</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-16105660.10751661</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-10479645.60951661</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-9558534.958616616</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-8350922.720616616</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-6600839.472616617</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-9212102.488216618</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-8584563.381216619</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-12804757.44221662</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-10774832.13221662</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-11643413.87521662</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-10885017.04321662</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-9965580.72621662</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-11266426.35021662</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-11264427.57041662</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-12344903.37341662</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-12447706.32921662</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-13977397.53821662</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-15288691.23911662</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-15285256.50311662</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-16764093.13711662</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-15766392.67641662</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-16558692.55841662</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-16438078.42371662</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-22799448.08481662</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-20202038.56371662</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-21129950.64371661</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-21736715.96701661</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-23329038.66431662</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-25345503.48371662</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-24534251.76181662</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-23318163.76081662</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-24391983.03881662</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-23497974.00881662</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-22697198.36481662</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-21523489.17581662</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-23569441.04881662</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-22802568.45381662</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-21366110.63081662</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-22599150.15581662</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-20636114.84261662</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-22097999.95261662</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-20848008.90261662</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-21860678.60661662</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-21860678.60661662</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-22424523.92361662</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-20085581.30861662</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-19079165.36761662</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-21302126.08521662</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-20340310.95621661</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-21666583.86821662</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-23094565.92821661</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-24293702.40421661</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-23552257.09721661</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-24624257.13721661</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-28850928.62521662</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-30544245.34914486</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-39650030.96734487</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-145924378.9283577</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-144697700.9435577</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24310,10 +24310,14 @@
         <v>-228744337.0925213</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="J725" t="n">
+        <v>0.2535</v>
+      </c>
       <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
@@ -24346,8 +24350,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24379,8 +24389,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24739,14 +24755,10 @@
         <v>-231038148.8582213</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="J738" t="n">
-        <v>0.2536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
@@ -24776,19 +24788,11 @@
         <v>-231932157.8882213</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="J739" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24817,19 +24821,11 @@
         <v>-232732933.5322213</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="J740" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24858,14 +24854,10 @@
         <v>-231559224.3432213</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J741" t="n">
-        <v>0.2528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
@@ -24895,19 +24887,11 @@
         <v>-232283718.1262213</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
-      </c>
-      <c r="I742" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="J742" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24936,19 +24920,11 @@
         <v>-233389621.2162213</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="J743" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24977,14 +24953,10 @@
         <v>-232622748.6212213</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J744" t="n">
-        <v>0.2529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
@@ -24992,6 +24964,6 @@
       <c r="M744" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest AMO.xlsx
+++ b/BackTest/2020-01-20 BackTest AMO.xlsx
@@ -451,7 +451,7 @@
         <v>-36597665.5939</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-36597665.5939</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-37932414.2679</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-37233347.77290001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-37658456.47860001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-38982202.04040001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-38246418.76230001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-9558534.958616616</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-8575324.305616617</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-9537139.434616618</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-9326008.688216619</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-10774832.13221662</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-11643413.87521662</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-10885017.04321662</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-9965580.72621662</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-11266426.35021662</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-11264427.57041662</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-12344903.37341662</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-12447706.32921662</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-13977397.53821662</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-15766392.67641662</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-15586448.20571662</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-16438078.42371662</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-16436113.93051662</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-18115401.99891662</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-44236185.04095771</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-145924378.9283577</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-144697700.9435577</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23914,10 +23914,14 @@
         <v>-223109711.6018213</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="J713" t="n">
+        <v>0.2512</v>
+      </c>
       <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
@@ -23947,11 +23951,19 @@
         <v>-223109711.6018213</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="J714" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -23980,11 +23992,19 @@
         <v>-232813123.5079213</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="J715" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24013,11 +24033,19 @@
         <v>-230530066.2368213</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="J716" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24046,11 +24074,19 @@
         <v>-228189491.8242213</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>0.2511</v>
+      </c>
+      <c r="J717" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24079,11 +24115,19 @@
         <v>-227193773.6452213</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="J718" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24115,8 +24159,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24148,8 +24198,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24178,11 +24234,19 @@
         <v>-229807994.6372213</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J721" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24211,11 +24275,19 @@
         <v>-228947888.6562213</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="J722" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24244,11 +24316,19 @@
         <v>-227326889.1331213</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="J723" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24280,8 +24360,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24316,9 +24402,13 @@
         <v>0.2535</v>
       </c>
       <c r="J725" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="K725" t="inlineStr"/>
+        <v>0.2512</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24351,11 +24441,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>0.2535</v>
+        <v>0.2512</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L726" t="n">
@@ -24390,11 +24480,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
-        <v>0.2535</v>
+        <v>0.2512</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L727" t="n">
@@ -24428,8 +24518,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24461,8 +24557,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24494,8 +24596,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24527,8 +24635,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24560,8 +24674,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24590,11 +24710,19 @@
         <v>-229271136.3022213</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="J733" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24626,8 +24754,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24659,8 +24793,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24692,8 +24832,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24725,8 +24871,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24758,8 +24910,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24791,8 +24949,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24824,8 +24988,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24857,8 +25027,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24890,8 +25066,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24923,8 +25105,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24956,8 +25144,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
